--- a/N 9849 UH WIWID.xlsx
+++ b/N 9849 UH WIWID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>20/3/2023</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,12 +1510,25 @@
       <c r="A37" s="17">
         <v>33</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>437419</v>
+      </c>
+      <c r="F37" s="1">
+        <f>E37+7000</f>
+        <v>444419</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
